--- a/datos de economia/datos_crudos/ind_deslab.xlsx
+++ b/datos de economia/datos_crudos/ind_deslab.xlsx
@@ -3,7 +3,7 @@
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:fileVersion appName="Microsoft Office Excel"/>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MiBDE" sheetId="1" r:id="R68dad189cf3843d2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cuadro" sheetId="1" r:id="R7a183fb4a26b4fbd"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -184,55 +184,1163 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:cols>
-    <x:col min="705" max="705" hidden="1"/>
+    <x:col min="1" max="1" width="15" customWidth="1"/>
+    <x:col min="2" max="2" width="20" customWidth="1"/>
+    <x:col min="3" max="3" width="20" customWidth="1"/>
+    <x:col min="4" max="4" width="20" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1">
-      <x:c r="A1" t="str">
-        <x:v>Año inicial</x:v>
-      </x:c>
-      <x:c r="B1" s="31"/>
-      <x:c r="C1" t="str">
-        <x:v>Año final</x:v>
-      </x:c>
-      <x:c r="D1" s="31"/>
-      <x:c r="AAC1" t="str">
-        <x:v>MONTHLY</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2">
-      <x:c r="AAC2" t="str">
-        <x:v>es-CL</x:v>
+      <x:c s="26" t="str">
+        <x:v>Indicadores mensuales del mercado laboral</x:v>
+      </x:c>
+      <x:c s="26" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="26" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="26" t="str">
+        <x:v/>
       </x:c>
     </x:row>
     <x:row r="3">
-      <x:c r="A3" t="str">
-        <x:v>Para actualizar, presione OBTENER DATOS en menú BCCh</x:v>
-      </x:c>
-      <x:c r="AAC3" t="str">
-        <x:v>01-01-2018</x:v>
+      <x:c s="28" t="str">
+        <x:v>Periodo</x:v>
+      </x:c>
+      <x:c s="28" t="str">
+        <x:v>1.Fuerza de trabajo ( promedio móvil trimestral, miles de personas )</x:v>
+      </x:c>
+      <x:c s="28" t="str">
+        <x:v>2.Empleo ( promedio móvil trimestral, miles de personas )</x:v>
+      </x:c>
+      <x:c s="28" t="str">
+        <x:v>3.Tasa  de  desempleo  (porcentaje)                  </x:v>
       </x:c>
     </x:row>
     <x:row r="4">
-      <x:c r="AAC4" t="str">
-        <x:v>Indicadores mensuales del mercado laboral</x:v>
+      <x:c s="5" t="d">
+        <x:v>2018-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9438.1152902459</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8793.9226351636</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6.8254374445719</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
-      <x:c r="AAC5" t="str">
-        <x:v>zZmP4DVQFq0cepEiuCu2vdqDURfRb3aeNH0WwP9gR6i7w0pnZnGTrI2JIydcQGIbWMkqNooXr3mDhnahn8sI4KG9u0LshDWjnBkXTKuXAmlWD6/G63BkN44QeBY2bAUqR+XudK9yp+Dc6VlnHHisRJ/qoQfiSZr2OJ8cgqh0hAsDDTmu4zX1qWYARbC8y02jtUYOlLfdNJC39zM4AWPyu0xGDIKOU8b/E903ighSVUCsVEJSimcYNwLH/cOtXnE9WEyCOdyZWrYLAIIeEGbwfs1jWqfXQIM6KUClZl88R+ccyFzzHYMMQddoNNRwwWqTDdkcuzOlKQuWk8gY57RG3v2bIv3XSvLVynbH1UuItXH+uJ021LqYc325tA7WpmqV9eoZ7joedAYMbrtU23qrWiLHo1tADiYYysfc0AqP1A+UoibS6iyNAypQSLfv9GImcQUs4o+/lyT8+DWKGq11lkBFqCnf+P5z2NvSXhNxQVqQJsOhkx/zjuN8hrTxtvjnnuYEDSUKPXnUVQdP38+sqAO9TuBB/UVmE9IIi1CIia8RCH/FeCi70CLfoqhro85U3e4nRlbGhGfxqtcjByAv4Om8mmMZSxvm3K4Ksmc+3sHYyXn5GOotwDQdZOy08gMLMjkopWMuCgaDoyEBMaBm6gdN/UH08gxQOEyXghkUuV0WX+9Ahg14UH7lBViwTB/o3iR0WBnarmDFnnUOqquhE7dkK+Cgax3g/ROeVXUUqTs=</x:v>
+      <x:c s="5" t="d">
+        <x:v>2018-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9449.494321481</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8787.0797412729</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7.0100532120791</x:v>
       </x:c>
     </x:row>
     <x:row r="6">
-      <x:c r="AAC6" t="str">
-        <x:v>07102024201815dea3c1db-c358-4dbb-9f50-178725a4dda6</x:v>
+      <x:c s="5" t="d">
+        <x:v>2018-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9456.6084761079</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8759.0807527202</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7.3760875809755</x:v>
       </x:c>
     </x:row>
     <x:row r="7">
-      <x:c r="AAC7" t="str">
-        <x:v>gMNPCFKmuKUfMPNvb5piy1W/+Ez2+AWDmlqIkSSyxCWEbYkjagjY3iMmDUN5NY3NvcnrGIWEOEjazZbwRJscHXhzRwfk0xregLfDjoOaEar/CkQRfmsdF+E5/5AhUNk/7Jxi3ahkR7wJ778+dJGUu450YZiIWyYI4g+WqkhMR+F2vuw5nHy4eYkG2aI3f1Vdfn1JaXdXCrNqbbv7K6LIhw==</x:v>
+      <x:c s="5" t="d">
+        <x:v>2018-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9441.3954861696</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8781.0837399422</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6.9937939491544</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8">
+      <x:c s="5" t="d">
+        <x:v>2018-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9465.3294492991</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8766.6512204168</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7.3814464950714</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9">
+      <x:c s="5" t="d">
+        <x:v>2018-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9466.8616971307</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8755.5487377646</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7.5137144929646</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10">
+      <x:c s="5" t="d">
+        <x:v>2018-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9450.9653070883</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8708.7376725227</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7.8534584611052</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11">
+      <x:c s="5" t="d">
+        <x:v>2018-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9435.5295859911</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8707.194347841</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7.7190711079047</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12">
+      <x:c s="5" t="d">
+        <x:v>2018-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9414.1738575884</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8710.9077206957</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7.4702905165262</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13">
+      <x:c s="5" t="d">
+        <x:v>2018-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9476.2038770948</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8773.8364747126</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7.4119068299065</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14">
+      <x:c s="5" t="d">
+        <x:v>2018-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9525.40593026</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8828.9913576049</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7.3111275021128</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15">
+      <x:c s="5" t="d">
+        <x:v>2018-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9600.3327160303</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8914.2484603238</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7.1464633153887</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16">
+      <x:c s="5" t="d">
+        <x:v>2019-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9613.3417408511</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8927.9516032599</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7.1295721723762</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17">
+      <x:c s="5" t="d">
+        <x:v>2019-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9581.6364295124</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8907.6374949622</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7.0342779076251</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18">
+      <x:c s="5" t="d">
+        <x:v>2019-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9571.7483956725</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8879.1099535837</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7.23627924029</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19">
+      <x:c s="5" t="d">
+        <x:v>2019-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9597.0564163644</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8916.0168798452</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7.0963377412054</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20">
+      <x:c s="5" t="d">
+        <x:v>2019-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9621.0996237267</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8925.2747406217</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7.2322801999576</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21">
+      <x:c s="5" t="d">
+        <x:v>2019-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9620.4577343928</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8922.6077561606</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7.2538126303226</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22">
+      <x:c s="5" t="d">
+        <x:v>2019-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9638.1038994576</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8910.5580292024</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7.5486410796646</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23">
+      <x:c s="5" t="d">
+        <x:v>2019-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9659.4437055937</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8928.0491756761</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7.5718079861493</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24">
+      <x:c s="5" t="d">
+        <x:v>2019-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9712.7438515881</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9000.0909553453</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7.3372973397862</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25">
+      <x:c s="5" t="d">
+        <x:v>2019-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9686.0489119515</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8994.3604287832</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7.1410798092785</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26">
+      <x:c s="5" t="d">
+        <x:v>2019-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9722.0473316309</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9045.3628648712</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6.9603082938941</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27">
+      <x:c s="5" t="d">
+        <x:v>2019-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9777.7515058871</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9087.1323840464</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7.0631690877494</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28">
+      <x:c s="5" t="d">
+        <x:v>2020-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9848.6860637033</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9115.641039495</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7.4430743295789</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29">
+      <x:c s="5" t="d">
+        <x:v>2020-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9831.2450270214</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9063.3737370672</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7.8105192968302</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30">
+      <x:c s="5" t="d">
+        <x:v>2020-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9744.2293154691</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8942.424519778</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8.2285090973616</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31">
+      <x:c s="5" t="d">
+        <x:v>2020-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9050.657950137</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8235.9307920195</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9.0018555844912</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32">
+      <x:c s="5" t="d">
+        <x:v>2020-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8390.8832100052</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7450.5225645242</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11.206932833479</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33">
+      <x:c s="5" t="d">
+        <x:v>2020-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8136.6987170241</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7142.5682851834</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12.217859680127</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34">
+      <x:c s="5" t="d">
+        <x:v>2020-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8138.6394235759</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7073.1925249337</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13.091216396143</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35">
+      <x:c s="5" t="d">
+        <x:v>2020-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8257.2097672124</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7191.4135982541</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12.907461467072</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36">
+      <x:c s="5" t="d">
+        <x:v>2020-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8402.6373375368</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7365.0552540326</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12.34829068332</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37">
+      <x:c s="5" t="d">
+        <x:v>2020-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8671.5704730726</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7667.6593982938</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11.577038760121</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38">
+      <x:c s="5" t="d">
+        <x:v>2020-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8871.0760173646</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7916.7236210867</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10.758022977255</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39">
+      <x:c s="5" t="d">
+        <x:v>2020-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8946.4800561464</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8026.2166007514</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10.286318749044</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40">
+      <x:c s="5" t="d">
+        <x:v>2021-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9046.633788595</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8121.4199958374</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10.227160890761</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41">
+      <x:c s="5" t="d">
+        <x:v>2021-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9105.9476253577</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8167.623309441</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10.304521336183</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42">
+      <x:c s="5" t="d">
+        <x:v>2021-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9089.2937424389</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8148.205568526</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10.353809664207</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43">
+      <x:c s="5" t="d">
+        <x:v>2021-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9029.1032951418</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8104.1288069841</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10.244367108474</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44">
+      <x:c s="5" t="d">
+        <x:v>2021-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8938.2717516501</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8041.1104714103</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10.037301451191</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45">
+      <x:c s="5" t="d">
+        <x:v>2021-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8884.9496070841</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8041.1914145572</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9.4964882170436</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46">
+      <x:c s="5" t="d">
+        <x:v>2021-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8948.327795689</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8148.9477948891</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8.9332892027599</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47">
+      <x:c s="5" t="d">
+        <x:v>2021-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9030.6784476998</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8258.7752434176</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8.5475660411635</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48">
+      <x:c s="5" t="d">
+        <x:v>2021-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9111.081847642</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8345.2397354882</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8.4056111552988</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49">
+      <x:c s="5" t="d">
+        <x:v>2021-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9199.5197090152</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8456.5112535566</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8.0766005069859</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50">
+      <x:c s="5" t="d">
+        <x:v>2021-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9255.0498190351</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8558.3621487674</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7.527649055274</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51">
+      <x:c s="5" t="d">
+        <x:v>2021-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9350.58381904</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8678.2868056954</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7.1898934478904</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52">
+      <x:c s="5" t="d">
+        <x:v>2022-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9396.1261994664</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8712.8901884523</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7.271464819756</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53">
+      <x:c s="5" t="d">
+        <x:v>2022-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9479.4643819231</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8768.6446671999</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7.4985219215408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54">
+      <x:c s="5" t="d">
+        <x:v>2022-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9541.6023505117</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8797.561064269</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7.7978651688704</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55">
+      <x:c s="5" t="d">
+        <x:v>2022-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9577.4932698408</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8835.4776322722</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7.7474931765825</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56">
+      <x:c s="5" t="d">
+        <x:v>2022-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9604.6183418149</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8855.0758705985</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7.8039797578749</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57">
+      <x:c s="5" t="d">
+        <x:v>2022-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9587.345015051</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8838.4320758244</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7.8114737505625</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58">
+      <x:c s="5" t="d">
+        <x:v>2022-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9610.9004185618</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8849.8313266449</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7.9188115449306</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59">
+      <x:c s="5" t="d">
+        <x:v>2022-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9615.7656887998</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8853.2931868608</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7.9293997650867</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60">
+      <x:c s="5" t="d">
+        <x:v>2022-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9616.7317913326</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8843.5442081889</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8.0400244066344</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61">
+      <x:c s="5" t="d">
+        <x:v>2022-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9637.2562701293</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8869.3230112416</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7.9683805988207</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62">
+      <x:c s="5" t="d">
+        <x:v>2022-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9650.164980646</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8883.090434042</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7.9488231355874</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63">
+      <x:c s="5" t="d">
+        <x:v>2022-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9730.299380729</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8965.2303799361</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7.8627488308129</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64">
+      <x:c s="5" t="d">
+        <x:v>2023-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9795.8633225843</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9008.5458557934</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8.0372443026616</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65">
+      <x:c s="5" t="d">
+        <x:v>2023-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9854.7736324855</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9030.1615912109</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8.3676406179058</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66">
+      <x:c s="5" t="d">
+        <x:v>2023-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9876.0771678725</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9006.1450081268</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8.808478760936</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67">
+      <x:c s="5" t="d">
+        <x:v>2023-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9860.6310574468</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9006.7291141666</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8.6597088797411</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68">
+      <x:c s="5" t="d">
+        <x:v>2023-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9876.1463656766</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9034.2307928412</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8.5247377029714</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69">
+      <x:c s="5" t="d">
+        <x:v>2023-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9877.4192735815</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9035.1139835172</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8.5275846527762</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70">
+      <x:c s="5" t="d">
+        <x:v>2023-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9896.8172533907</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9028.6472601108</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8.7722140467169</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71">
+      <x:c s="5" t="d">
+        <x:v>2023-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9895.6181278261</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9005.4428287419</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8.9956512830772</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72">
+      <x:c s="5" t="d">
+        <x:v>2023-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9906.4114938118</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9023.452188197</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8.913008571937</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73">
+      <x:c s="5" t="d">
+        <x:v>2023-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9935.9432683572</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9052.9887421411</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8.8864690786627</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74">
+      <x:c s="5" t="d">
+        <x:v>2023-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10012.773356842</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9138.4167213042</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8.732412133756</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75">
+      <x:c s="5" t="d">
+        <x:v>2023-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10077.245924915</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9223.1349041614</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8.4756393474728</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76">
+      <x:c s="5" t="d">
+        <x:v>2024-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10127.76750008</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9273.4263972835</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8.4356310785176</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77">
+      <x:c s="5" t="d">
+        <x:v>2024-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10174.908427939</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9309.6080943488</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8.5042567185626</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78">
+      <x:c s="5" t="d">
+        <x:v>2024-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10193.23062539</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9308.6847010365</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8.6777779966085</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79">
+      <x:c s="5" t="d">
+        <x:v>2024-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10209.534117298</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9339.2955108769</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8.5237837145473</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80">
+      <x:c s="5" t="d">
+        <x:v>2024-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10177.707623854</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9331.646959264</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8.3128804231685</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81">
+      <x:c s="5" t="d">
+        <x:v>2024-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10170.424862338</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9321.3796878163</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8.3481780359655</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82">
+      <x:c s="5" t="d">
+        <x:v>2024-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10137.870129189</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9257.4796667462</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8.6841757807491</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83">
+      <x:c s="5" t="d">
+        <x:v>2024-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10137.428990574</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9235.0637636233</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8.9013222957233</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:mergeCells>
+    <x:mergeCell ref="A1:D1"/>
+  </x:mergeCells>
 </x:worksheet>
 </file>